--- a/Recipients data.xlsx
+++ b/Recipients data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20390"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619C5C0A-3DB5-4CA4-AEF6-95930A8BCA6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipients" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Message</t>
   </si>
@@ -22,33 +23,154 @@
     <t>Username</t>
   </si>
   <si>
-    <t>Hi ** Important Text **: Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book.</t>
-  </si>
-  <si>
-    <t>@local_bot</t>
-  </si>
-  <si>
-    <t>@publicbot</t>
-  </si>
-  <si>
-    <t>@Enjin_Airdrop_bot</t>
-  </si>
-  <si>
-    <t>@thelazy_bot</t>
-  </si>
-  <si>
-    <t>@ArtiBot</t>
+    <t>南山西丽 400米 70分钟 环保莞式服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/caifa6688</t>
+  </si>
+  <si>
+    <t>https://t.me/ShenZhenCity</t>
+  </si>
+  <si>
+    <t>https://t.me/Sz1888</t>
+  </si>
+  <si>
+    <t>https://t.me/szqmjiaoliu</t>
+  </si>
+  <si>
+    <t>https://t.me/nenmei1</t>
+  </si>
+  <si>
+    <t>https://t.me/sanshengYX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/shenzhen157</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhenxiuche88</t>
+  </si>
+  <si>
+    <t>https://t.me/szhechaba</t>
+  </si>
+  <si>
+    <t>https://t.me/szsx027</t>
+  </si>
+  <si>
+    <t>https://t.me/szqiyanshe</t>
+  </si>
+  <si>
+    <t>https://t.me/leilasz002</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhen_goodcar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/xunhuanchuji</t>
+  </si>
+  <si>
+    <t>https://t.me/zzaa9455</t>
+  </si>
+  <si>
+    <t>https://t.me/chalou857</t>
+  </si>
+  <si>
+    <t>https://t.me/loufengdq</t>
+  </si>
+  <si>
+    <t>https://t.me/sharedGirlsTalk</t>
+  </si>
+  <si>
+    <t>https://t.me/QGKDLKZJ88888888</t>
+  </si>
+  <si>
+    <t>https://t.me/lailai666666</t>
+  </si>
+  <si>
+    <t>https://t.me/GSaiyu</t>
+  </si>
+  <si>
+    <t>https://t.me/szlxy122</t>
+  </si>
+  <si>
+    <t>https://t.me/mingge021</t>
+  </si>
+  <si>
+    <t>https://t.me/GsShangKe</t>
+  </si>
+  <si>
+    <t>https://t.me/YUE551</t>
+  </si>
+  <si>
+    <t>https://t.me/szshuiguo111</t>
+  </si>
+  <si>
+    <t>https://t.me/jiche111</t>
+  </si>
+  <si>
+    <t>https://t.me/okdrivers</t>
+  </si>
+  <si>
+    <t>https://t.me/waiweiziy</t>
+  </si>
+  <si>
+    <t>https://t.me/gzcccc</t>
+  </si>
+  <si>
+    <t>https://t.me/gskjshe</t>
+  </si>
+  <si>
+    <t>https://t.me/gzthzltsy123</t>
+  </si>
+  <si>
+    <t>https://t.me/guangzhouxiuche3</t>
+  </si>
+  <si>
+    <t>https://t.me/guanggzhou</t>
+  </si>
+  <si>
+    <t>https://t.me/sz366</t>
+  </si>
+  <si>
+    <t>https://t.me/HongXiouge</t>
+  </si>
+  <si>
+    <t>https://t.me/szxiuche007</t>
+  </si>
+  <si>
+    <t>https://t.me/sdssz1</t>
+  </si>
+  <si>
+    <t>https://t.me/ak3836</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -70,10 +192,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -86,9 +209,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -114,25 +242,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A42" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="Username"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Username"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C1:C3" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="C1:C3" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <tableColumns count="1">
-    <tableColumn id="1" name="Message" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Message" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -207,6 +335,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -242,6 +387,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -417,21 +579,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="92.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="92.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -440,43 +602,225 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{63D99955-2FBB-49D7-B934-9E860C1E5318}"/>
+    <hyperlink ref="A15" r:id="rId2" xr:uid="{C4ADDB11-9CC1-4D80-9687-00F64ED86174}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{17629EEC-0957-4048-879E-3A44EC346486}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Recipients data.xlsx
+++ b/Recipients data.xlsx
@@ -1,35 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20390"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619C5C0A-3DB5-4CA4-AEF6-95930A8BCA6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19275" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Recipients" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+  <si>
+    <t>Username</t>
+  </si>
   <si>
     <t>Message</t>
   </si>
   <si>
-    <t>Username</t>
+    <t>https://t.me/ak3836</t>
   </si>
   <si>
     <t>南山西丽 400米 70分钟 环保莞式服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/caifa6688</t>
   </si>
   <si>
+    <t>D:\software\Telegram Desktop\Telegram.exe</t>
+  </si>
+  <si>
     <t>https://t.me/ShenZhenCity</t>
   </si>
   <si>
@@ -43,7 +47,6 @@
   </si>
   <si>
     <t>https://t.me/sanshengYX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/shenzhen157</t>
@@ -65,7 +68,6 @@
   </si>
   <si>
     <t>https://t.me/shenzhen_goodcar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/xunhuanchuji</t>
@@ -141,28 +143,23 @@
   </si>
   <si>
     <t>https://t.me/sdssz1</t>
-  </si>
-  <si>
-    <t>https://t.me/ak3836</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -171,19 +168,348 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -191,42 +517,325 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+  </cellXfs>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  </cellStyles>
+  <dxfs count="1">
+    <dxf>
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-  </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
-  </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -234,26 +843,23 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A42" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A42" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Username"/>
+    <tableColumn id="1" name="Username"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="C1:C3" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C1:C3" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Message" dataDxfId="0"/>
+    <tableColumn id="1" name="Message" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -302,7 +908,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,26 +941,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,23 +976,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -574,253 +1146,254 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="5" customWidth="1"/>
+    <col min="1" max="2" width="26.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="92.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1"/>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:3">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
-        <v>40</v>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" xr:uid="{63D99955-2FBB-49D7-B934-9E860C1E5318}"/>
-    <hyperlink ref="A15" r:id="rId2" xr:uid="{C4ADDB11-9CC1-4D80-9687-00F64ED86174}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{17629EEC-0957-4048-879E-3A44EC346486}"/>
+    <hyperlink ref="A8" r:id="rId3" display="https://t.me/sanshengYX"/>
+    <hyperlink ref="A15" r:id="rId4" display="https://t.me/shenzhen_goodcar"/>
+    <hyperlink ref="A2" r:id="rId5" display="https://t.me/ak3836"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="2">
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>